--- a/biology/Biologie cellulaire et moléculaire/Polysome/Polysome.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Polysome/Polysome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un polysome ou polyribosome est un ensemble de ribosomes reliés entre eux par un ARN messager. Cet ensemble a l'aspect  d'un collier de perles.
 Ils sont le lieu de la biosynthèse des protéines qu'ils soient sous forme libre dans le hyaloplasme ou liés au réticulum endoplasmique pour former un réticulum endoplasmique rugueux.
@@ -514,7 +526,9 @@
           <t>Procaryotes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les polyribosomes y sont linéaires avec une distance d’à peu près 80 nucléotides.
 Traduction et transcription sont simultanées, cela se passe donc dans le cytosol. 
@@ -546,7 +560,9 @@
           <t>Eucaryotes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les polyribosomes vont s'enrouler en spirale due aux interactions entre le complexe de coiffe et les protéines associées à la queue polyadénylées de l'ARNm en particulier polyA BidingProtein (PABP).
 Cette queue polyA est protégée par les PABP mais est raccourcie par les nucléases qui, progressivement, la dégradent (en 3')
